--- a/ESP_GOSTToolSheetAddIn/Resources/F4a.xlsx
+++ b/ESP_GOSTToolSheetAddIn/Resources/F4a.xlsx
@@ -676,42 +676,43 @@
   <dimension ref="A1:AH32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="1" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
     <col min="4" max="4" width="1.42578125" customWidth="1"/>
     <col min="5" max="5" width="1" customWidth="1"/>
-    <col min="6" max="6" width="1.42578125" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
     <col min="12" max="12" width="2.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="15" width="5.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
+    <col min="14" max="15" width="5.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
     <col min="17" max="17" width="1.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
     <col min="19" max="19" width="1.42578125" customWidth="1"/>
-    <col min="20" max="20" width="7" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" customWidth="1"/>
     <col min="21" max="21" width="1.42578125" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" customWidth="1"/>
     <col min="23" max="23" width="1.42578125" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" customWidth="1"/>
     <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="1.42578125" customWidth="1"/>
-    <col min="27" max="27" width="5.42578125" customWidth="1"/>
-    <col min="28" max="29" width="2.85546875" customWidth="1"/>
-    <col min="30" max="30" width="7" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" customWidth="1"/>
+    <col min="28" max="28" width="3" customWidth="1"/>
+    <col min="29" max="29" width="2.85546875" customWidth="1"/>
+    <col min="30" max="30" width="7.5703125" customWidth="1"/>
     <col min="31" max="31" width="0" hidden="1" customWidth="1"/>
     <col min="32" max="33" width="1.42578125" customWidth="1"/>
-    <col min="34" max="34" width="5.140625" customWidth="1"/>
+    <col min="34" max="34" width="5" customWidth="1"/>
     <col min="35" max="35" width="3" customWidth="1"/>
   </cols>
   <sheetData>
